--- a/trackers/book-review-tracker.xlsx
+++ b/trackers/book-review-tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3353C2E-D0A1-4F46-AF34-2DB1092C38C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21247187-DD6F-480A-87A4-1308CF08B0EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
+    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -551,7 +554,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -611,45 +614,72 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/trackers/book-review-tracker.xlsx
+++ b/trackers/book-review-tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\trackers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George Mount\Documents\GitHub\advancing-into-analytics-book\trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21247187-DD6F-480A-87A4-1308CF08B0EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8206B318-A7AD-4B5D-8F93-AE4EB8BFFDAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
+    <workbookView xWindow="28680" yWindow="2955" windowWidth="29040" windowHeight="16440" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,12 +35,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Chapter</t>
   </si>
   <si>
     <t>Done?</t>
+  </si>
+  <si>
+    <t>Keyboard shortcuts fixed?</t>
+  </si>
+  <si>
+    <t>Menu navigations fixed?</t>
+  </si>
+  <si>
+    <t>Filenames, file extensions, directory paths are italic</t>
+  </si>
+  <si>
+    <t>Variables, keyboards, commands are fixed-width</t>
+  </si>
+  <si>
+    <t>Dataset objects I will refer to in fixed width</t>
+  </si>
+  <si>
+    <t>But individual columns in italics.</t>
   </si>
 </sst>
 </file>
@@ -77,8 +94,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -244,11 +264,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85B325E6-BDC8-4DFD-9E83-3268A1F4F19F}" name="Table1" displayName="Table1" ref="A1:B15" totalsRowShown="0">
-  <autoFilter ref="A1:B15" xr:uid="{31D76EE5-EE39-4E24-8C33-953251C5497F}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85B325E6-BDC8-4DFD-9E83-3268A1F4F19F}" name="Table1" displayName="Table1" ref="A1:D15" totalsRowShown="0">
+  <autoFilter ref="A1:D15" xr:uid="{31D76EE5-EE39-4E24-8C33-953251C5497F}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7441B025-5C8D-43AB-A605-96AA23EC043D}" name="Chapter"/>
     <tableColumn id="2" xr3:uid="{58B9FAA3-188E-49FA-B5F1-0565EB39DC2D}" name="Done?"/>
+    <tableColumn id="3" xr3:uid="{E19EF810-0F34-43BD-82EF-83EB096747B8}" name="Keyboard shortcuts fixed?"/>
+    <tableColumn id="4" xr3:uid="{DD61A15D-524C-41ED-9222-1708AC20B79B}" name="Menu navigations fixed?"/>
   </tableColumns>
   <tableStyleInfo name="Stringfest" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -551,130 +573,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A21CF2-F045-4933-8F09-4E42461A7DCE}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -696,7 +814,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -708,7 +826,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trackers/book-review-tracker.xlsx
+++ b/trackers/book-review-tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George Mount\Documents\GitHub\advancing-into-analytics-book\trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8206B318-A7AD-4B5D-8F93-AE4EB8BFFDAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54EAC12-CB21-40F2-BE59-A3225C52E49E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2955" windowWidth="29040" windowHeight="16440" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Chapter</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>But individual columns in italics.</t>
+  </si>
+  <si>
+    <t>Finished post-TR review?</t>
   </si>
 </sst>
 </file>
@@ -264,13 +267,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85B325E6-BDC8-4DFD-9E83-3268A1F4F19F}" name="Table1" displayName="Table1" ref="A1:D15" totalsRowShown="0">
-  <autoFilter ref="A1:D15" xr:uid="{31D76EE5-EE39-4E24-8C33-953251C5497F}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85B325E6-BDC8-4DFD-9E83-3268A1F4F19F}" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7441B025-5C8D-43AB-A605-96AA23EC043D}" name="Chapter"/>
     <tableColumn id="2" xr3:uid="{58B9FAA3-188E-49FA-B5F1-0565EB39DC2D}" name="Done?"/>
     <tableColumn id="3" xr3:uid="{E19EF810-0F34-43BD-82EF-83EB096747B8}" name="Keyboard shortcuts fixed?"/>
     <tableColumn id="4" xr3:uid="{DD61A15D-524C-41ED-9222-1708AC20B79B}" name="Menu navigations fixed?"/>
+    <tableColumn id="5" xr3:uid="{82F91335-DC31-4BA1-8D08-73AA7AEECBF0}" name="Finished post-TR review?"/>
   </tableColumns>
   <tableStyleInfo name="Stringfest" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -576,7 +579,8 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,6 +600,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">

--- a/trackers/book-review-tracker.xlsx
+++ b/trackers/book-review-tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George Mount\Documents\GitHub\advancing-into-analytics-book\trackers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54EAC12-CB21-40F2-BE59-A3225C52E49E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DAAF8D-6F62-43B0-BCA8-0FCF4ACC5449}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
+    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -580,15 +580,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -636,7 +636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -653,7 +653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -684,7 +684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -701,7 +701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -715,7 +715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -743,7 +743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -756,8 +756,11 @@
       <c r="D11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -770,8 +773,11 @@
       <c r="D12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -784,8 +790,11 @@
       <c r="D13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -798,12 +807,18 @@
       <c r="D14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
         <v>1</v>
       </c>
     </row>
@@ -821,7 +836,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -833,7 +848,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trackers/book-review-tracker.xlsx
+++ b/trackers/book-review-tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DAAF8D-6F62-43B0-BCA8-0FCF4ACC5449}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C03B1D2-11E7-4170-A8B4-BF701C3FBCE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
@@ -580,7 +580,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -714,6 +714,9 @@
       <c r="D8" t="b">
         <v>1</v>
       </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
@@ -728,6 +731,9 @@
       <c r="D9" t="b">
         <v>1</v>
       </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
@@ -740,6 +746,9 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
         <v>1</v>
       </c>
     </row>

--- a/trackers/book-review-tracker.xlsx
+++ b/trackers/book-review-tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C03B1D2-11E7-4170-A8B4-BF701C3FBCE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533B960D-A51F-4C37-96E3-C971BDCCF752}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
+    <workbookView xWindow="-86520" yWindow="4815" windowWidth="29040" windowHeight="18240" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -580,7 +580,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -666,6 +666,9 @@
       <c r="D5" t="b">
         <v>1</v>
       </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
@@ -680,6 +683,9 @@
       <c r="D6" t="b">
         <v>1</v>
       </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
       <c r="G6" t="s">
         <v>6</v>
       </c>
@@ -695,6 +701,9 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="G7" t="s">

--- a/trackers/book-review-tracker.xlsx
+++ b/trackers/book-review-tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533B960D-A51F-4C37-96E3-C971BDCCF752}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB10AF82-841B-40E6-937E-31FC1EA234E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-86520" yWindow="4815" windowWidth="29040" windowHeight="18240" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Chapter</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>Finished post-TR review?</t>
+  </si>
+  <si>
+    <t>Checked end-of-chapter exercises?</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -267,13 +273,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85B325E6-BDC8-4DFD-9E83-3268A1F4F19F}" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85B325E6-BDC8-4DFD-9E83-3268A1F4F19F}" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{7441B025-5C8D-43AB-A605-96AA23EC043D}" name="Chapter"/>
     <tableColumn id="2" xr3:uid="{58B9FAA3-188E-49FA-B5F1-0565EB39DC2D}" name="Done?"/>
     <tableColumn id="3" xr3:uid="{E19EF810-0F34-43BD-82EF-83EB096747B8}" name="Keyboard shortcuts fixed?"/>
     <tableColumn id="4" xr3:uid="{DD61A15D-524C-41ED-9222-1708AC20B79B}" name="Menu navigations fixed?"/>
     <tableColumn id="5" xr3:uid="{82F91335-DC31-4BA1-8D08-73AA7AEECBF0}" name="Finished post-TR review?"/>
+    <tableColumn id="6" xr3:uid="{A3658C30-F079-49FC-9E73-DD5A17B20AB1}" name="Checked end-of-chapter exercises?"/>
   </tableColumns>
   <tableStyleInfo name="Stringfest" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -576,11 +583,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A21CF2-F045-4933-8F09-4E42461A7DCE}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -588,7 +595,7 @@
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -604,8 +611,11 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -618,8 +628,11 @@
       <c r="D2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -632,11 +645,14 @@
       <c r="D3" t="b">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -649,11 +665,14 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -669,8 +688,11 @@
       <c r="E5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -686,11 +708,14 @@
       <c r="E6" t="b">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -706,11 +731,14 @@
       <c r="E7" t="b">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -726,8 +754,11 @@
       <c r="E8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -743,8 +774,11 @@
       <c r="E9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -760,8 +794,11 @@
       <c r="E10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -777,8 +814,11 @@
       <c r="E11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -794,8 +834,11 @@
       <c r="E12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -811,8 +854,11 @@
       <c r="E13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -828,8 +874,11 @@
       <c r="E14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -838,6 +887,9 @@
       </c>
       <c r="E15" t="b">
         <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
